--- a/biology/Zoologie/Enrico_Hillyer_Giglioli/Enrico_Hillyer_Giglioli.xlsx
+++ b/biology/Zoologie/Enrico_Hillyer_Giglioli/Enrico_Hillyer_Giglioli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enrico Hillyer Giglioli est un zoologiste et un anthropologue italien, né le 13 juin 1845 à Londres et mort le 16 décembre 1909 à Florence.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le premier des cinq fils de Vincenzo Giglioli, médecin et anthropologue, exilé à Londres pour des raisons politiques. La famille revient en Italie en 1848.
 Giglioli étudie à Pavie avant d’obtenir à 16 ans une bourse d’étude pour aller étudier à l’école royale des mines de Londres de 1861 à 1863. Il rencontre Charles Darwin (1809-1882) et étudie auprès de Sir Richard Owen (1804-1892), Thomas Henry Huxley (1825-1895) et Sir Charles Lyell (1797-1875).
